--- a/用例数据/深A/特殊调账/测试结果.xlsx
+++ b/用例数据/深A/特殊调账/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog2022" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="361">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>1000778735.780</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -1108,13 +1105,34 @@
   </si>
   <si>
     <t>CCB1</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1151,14 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1170,12 +1196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1482,141 +1509,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="26" max="26" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="5.625" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="10.75" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="5.6640625" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="11.875" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.125" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
-    <col min="136" max="136" width="14.125" customWidth="1"/>
-    <col min="137" max="137" width="17.5" customWidth="1"/>
-    <col min="138" max="138" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.44140625" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>338</v>
       </c>
@@ -2052,7 +2079,7 @@
         <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>141</v>
@@ -2154,7 +2181,7 @@
         <v>156</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>141</v>
@@ -2177,8 +2204,8 @@
       <c r="AY2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>149</v>
+      <c r="AZ2" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>160</v>
@@ -2238,25 +2265,25 @@
         <v>140</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>161</v>
@@ -2361,9 +2388,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>138</v>
@@ -2381,7 +2408,7 @@
         <v>140</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>141</v>
@@ -2483,7 +2510,7 @@
         <v>156</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>141</v>
@@ -2506,8 +2533,8 @@
       <c r="AY3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>149</v>
+      <c r="AZ3" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>160</v>
@@ -2567,7 +2594,7 @@
         <v>140</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>155</v>
@@ -2585,7 +2612,7 @@
         <v>160</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>161</v>
@@ -2690,9 +2717,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>138</v>
@@ -2710,7 +2737,7 @@
         <v>140</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>141</v>
@@ -2812,7 +2839,7 @@
         <v>156</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>141</v>
@@ -2835,8 +2862,8 @@
       <c r="AY4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>149</v>
+      <c r="AZ4" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>160</v>
@@ -2896,7 +2923,7 @@
         <v>140</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>155</v>
@@ -2914,7 +2941,7 @@
         <v>160</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>161</v>
@@ -3019,9 +3046,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>138</v>
@@ -3039,7 +3066,7 @@
         <v>140</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>141</v>
@@ -3141,7 +3168,7 @@
         <v>156</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>141</v>
@@ -3164,8 +3191,8 @@
       <c r="AY5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>149</v>
+      <c r="AZ5" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>160</v>
@@ -3225,7 +3252,7 @@
         <v>140</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>155</v>
@@ -3243,7 +3270,7 @@
         <v>160</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>161</v>
@@ -3348,9 +3375,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>178</v>
@@ -3368,7 +3395,7 @@
         <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>141</v>
@@ -3470,7 +3497,7 @@
         <v>156</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>141</v>
@@ -3493,8 +3520,8 @@
       <c r="AY6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ6" s="1" t="s">
-        <v>149</v>
+      <c r="AZ6" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>160</v>
@@ -3554,7 +3581,7 @@
         <v>140</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>155</v>
@@ -3572,7 +3599,7 @@
         <v>160</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>161</v>
@@ -3677,9 +3704,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>178</v>
@@ -3697,7 +3724,7 @@
         <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>141</v>
@@ -3799,7 +3826,7 @@
         <v>156</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>141</v>
@@ -3822,8 +3849,8 @@
       <c r="AY7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ7" s="1" t="s">
-        <v>149</v>
+      <c r="AZ7" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>160</v>
@@ -3883,7 +3910,7 @@
         <v>140</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>155</v>
@@ -3901,7 +3928,7 @@
         <v>160</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>161</v>
@@ -4006,9 +4033,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>178</v>
@@ -4026,7 +4053,7 @@
         <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>141</v>
@@ -4128,7 +4155,7 @@
         <v>156</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>141</v>
@@ -4151,8 +4178,8 @@
       <c r="AY8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ8" s="1" t="s">
-        <v>149</v>
+      <c r="AZ8" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>160</v>
@@ -4212,7 +4239,7 @@
         <v>140</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>155</v>
@@ -4230,7 +4257,7 @@
         <v>160</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>161</v>
@@ -4335,9 +4362,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>178</v>
@@ -4355,7 +4382,7 @@
         <v>140</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>141</v>
@@ -4457,7 +4484,7 @@
         <v>156</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>141</v>
@@ -4480,8 +4507,8 @@
       <c r="AY9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AZ9" s="1" t="s">
-        <v>149</v>
+      <c r="AZ9" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>160</v>
@@ -4541,7 +4568,7 @@
         <v>140</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>155</v>
@@ -4559,7 +4586,7 @@
         <v>160</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>161</v>
@@ -4664,24 +4691,24 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:EH9"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4698,9 +4725,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4960,7 +4987,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5220,7 +5247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -5480,7 +5507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -5740,7 +5767,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -6014,82 +6041,82 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="15.25" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.875" customWidth="1"/>
-    <col min="34" max="34" width="20.875" customWidth="1"/>
-    <col min="35" max="35" width="24.25" customWidth="1"/>
-    <col min="36" max="36" width="23.125" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="24.21875" customWidth="1"/>
+    <col min="36" max="36" width="23.109375" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="42" width="15.25" customWidth="1"/>
+    <col min="39" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="42" width="15.21875" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="19.75" customWidth="1"/>
-    <col min="49" max="49" width="23.125" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="18.625" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="17.5" customWidth="1"/>
-    <col min="59" max="59" width="18.625" customWidth="1"/>
-    <col min="60" max="60" width="25.5" customWidth="1"/>
-    <col min="61" max="61" width="27.625" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="23.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
-    <col min="74" max="74" width="26.5" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" customWidth="1"/>
+    <col min="48" max="48" width="19.77734375" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" customWidth="1"/>
+    <col min="50" max="50" width="15.21875" customWidth="1"/>
+    <col min="51" max="51" width="18.6640625" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" customWidth="1"/>
+    <col min="53" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="56" width="17.44140625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" customWidth="1"/>
+    <col min="60" max="60" width="25.44140625" customWidth="1"/>
+    <col min="61" max="61" width="27.6640625" customWidth="1"/>
+    <col min="62" max="62" width="20.88671875" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="23.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="23.109375" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" customWidth="1"/>
+    <col min="68" max="68" width="24.21875" customWidth="1"/>
+    <col min="69" max="69" width="19.77734375" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="17.5" customWidth="1"/>
-    <col min="79" max="79" width="20.875" customWidth="1"/>
+    <col min="78" max="78" width="17.44140625" customWidth="1"/>
+    <col min="79" max="79" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6328,7 +6355,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -6567,7 +6594,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -6806,7 +6833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
@@ -7045,7 +7072,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -7284,17 +7311,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7309,12 +7336,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -7358,7 +7385,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -7402,7 +7429,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -7446,7 +7473,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -7490,7 +7517,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -7534,7 +7561,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -7578,13 +7605,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7599,23 +7626,23 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7662,7 +7689,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -7709,7 +7736,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -7756,7 +7783,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
@@ -7803,7 +7830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -7850,7 +7877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>154</v>
       </c>
@@ -7897,7 +7924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
@@ -7944,15 +7971,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7967,69 +7994,69 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
-    <col min="26" max="27" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="11.875" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="8.625" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="8.625" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="11.88671875" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="68" width="11.875" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8235,7 +8262,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -8375,7 +8402,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>324</v>
       </c>
@@ -8515,7 +8542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>324</v>
       </c>
@@ -8655,7 +8682,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>324</v>
       </c>
@@ -8795,7 +8822,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>324</v>
       </c>
@@ -8935,7 +8962,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>324</v>
       </c>
@@ -9075,7 +9102,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
@@ -9215,7 +9242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>324</v>
       </c>
@@ -9355,20 +9382,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:BP9"/>
   <phoneticPr fontId="1" type="noConversion"/>
